--- a/statistics/export/templates/area_week_template.xlsx
+++ b/statistics/export/templates/area_week_template.xlsx
@@ -25,7 +25,7 @@
     <t>新增学校</t>
   </si>
   <si>
-    <t>同比增长率</t>
+    <t>环比增长率</t>
   </si>
   <si>
     <t>教师数量总数</t>
@@ -7708,36 +7708,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
